--- a/src/main/resources/work-dir/user_positions.xlsx
+++ b/src/main/resources/work-dir/user_positions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="244">
   <si>
     <t>Посада</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>лікар-офтальмолог</t>
-  </si>
-  <si>
-    <t>9, 47</t>
   </si>
   <si>
     <t>Лікар-офтальмолог</t>
@@ -751,6 +748,18 @@
   </si>
   <si>
     <t>4, 9, 17, 38, 47</t>
+  </si>
+  <si>
+    <t>4, 9, 60</t>
+  </si>
+  <si>
+    <t>9, 60</t>
+  </si>
+  <si>
+    <t>9, 47, 60</t>
+  </si>
+  <si>
+    <t>4, 9, 47, 60</t>
   </si>
 </sst>
 </file>
@@ -825,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -861,6 +870,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1080,7 +1090,7 @@
   <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1617,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1732,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1755,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1870,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,7 +2317,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2399,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2560,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2632,7 +2642,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>98</v>
       </c>
@@ -2648,14 +2658,14 @@
       <c r="E68" s="8">
         <v>0</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>45</v>
+      <c r="F68" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>99</v>
       </c>
@@ -2671,8 +2681,8 @@
       <c r="E69" s="1">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>45</v>
+      <c r="F69" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>99</v>
@@ -2770,7 +2780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>108</v>
       </c>
@@ -2787,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>109</v>
@@ -2839,7 +2849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>114</v>
       </c>
@@ -2855,8 +2865,8 @@
       <c r="E77" s="8">
         <v>0</v>
       </c>
-      <c r="F77" s="1">
-        <v>9</v>
+      <c r="F77" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>115</v>
@@ -2885,7 +2895,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>118</v>
       </c>
@@ -2901,16 +2911,16 @@
       <c r="E79" s="8">
         <v>0</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G79" s="9" t="s">
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="B80" s="7">
         <v>1068</v>
@@ -2924,16 +2934,16 @@
       <c r="E80" s="8">
         <v>0</v>
       </c>
-      <c r="F80" s="1">
-        <v>9</v>
+      <c r="F80" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="7">
         <v>1070</v>
@@ -2948,15 +2958,15 @@
         <v>0</v>
       </c>
       <c r="F81" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" s="13">
         <v>1072</v>
@@ -2974,12 +2984,12 @@
         <v>9</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" s="7">
         <v>1074</v>
@@ -2997,12 +3007,12 @@
         <v>0</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="4">
         <v>1077</v>
@@ -3020,12 +3030,12 @@
         <v>0</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" s="7">
         <v>1078</v>
@@ -3039,16 +3049,16 @@
       <c r="E85" s="8">
         <v>0</v>
       </c>
-      <c r="F85" s="1">
-        <v>9</v>
+      <c r="F85" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="7">
         <v>1080</v>
@@ -3066,12 +3076,12 @@
         <v>9</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87" s="7">
         <v>1087</v>
@@ -3089,12 +3099,12 @@
         <v>45</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" s="7">
         <v>1088</v>
@@ -3112,12 +3122,12 @@
         <v>45</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B89" s="7">
         <v>1091</v>
@@ -3135,12 +3145,12 @@
         <v>9</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" s="7">
         <v>1094</v>
@@ -3158,12 +3168,12 @@
         <v>9</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B91" s="7">
         <v>1093</v>
@@ -3181,12 +3191,12 @@
         <v>9</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" s="4">
         <v>1095</v>
@@ -3204,12 +3214,12 @@
         <v>0</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="4">
         <v>1099</v>
@@ -3227,12 +3237,12 @@
         <v>0</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" s="7">
         <v>1103</v>
@@ -3247,15 +3257,15 @@
         <v>0</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" s="4">
         <v>1104</v>
@@ -3270,15 +3280,15 @@
         <v>0</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" s="7">
         <v>1105</v>
@@ -3293,15 +3303,15 @@
         <v>0</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G96" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="B97" s="7">
         <v>1106</v>
@@ -3315,16 +3325,16 @@
       <c r="E97" s="8">
         <v>0</v>
       </c>
-      <c r="F97" s="12" t="s">
-        <v>124</v>
+      <c r="F97" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="7">
         <v>1107</v>
@@ -3339,15 +3349,15 @@
         <v>0</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G98" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="B99" s="7">
         <v>1116</v>
@@ -3361,16 +3371,16 @@
       <c r="E99" s="8">
         <v>0</v>
       </c>
-      <c r="F99" s="1">
-        <v>9</v>
+      <c r="F99" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="G99" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="B100" s="7">
         <v>1117</v>
@@ -3384,16 +3394,16 @@
       <c r="E100" s="8">
         <v>0</v>
       </c>
-      <c r="F100" s="12" t="s">
-        <v>45</v>
+      <c r="F100" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B101" s="7">
         <v>1122</v>
@@ -3411,12 +3421,12 @@
         <v>4</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B102" s="7">
         <v>1125</v>
@@ -3434,12 +3444,12 @@
         <v>45</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="7">
         <v>1126</v>
@@ -3454,15 +3464,15 @@
         <v>0</v>
       </c>
       <c r="F103" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104" s="7">
         <v>1127</v>
@@ -3480,12 +3490,12 @@
         <v>9</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B105" s="7">
         <v>1128</v>
@@ -3503,12 +3513,12 @@
         <v>9</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B106" s="7">
         <v>1130</v>
@@ -3526,15 +3536,15 @@
         <v>9</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C107" s="8">
         <v>0</v>
@@ -3549,12 +3559,12 @@
         <v>9</v>
       </c>
       <c r="G107" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="B108" s="7">
         <v>1132</v>
@@ -3568,16 +3578,16 @@
       <c r="E108" s="8">
         <v>0</v>
       </c>
-      <c r="F108" s="12" t="s">
-        <v>165</v>
+      <c r="F108" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B109" s="7">
         <v>1133</v>
@@ -3592,15 +3602,15 @@
         <v>0</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="7">
         <v>1135</v>
@@ -3618,12 +3628,12 @@
         <v>4</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B111" s="7">
         <v>1137</v>
@@ -3641,12 +3651,12 @@
         <v>4</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B112" s="7">
         <v>1134</v>
@@ -3664,12 +3674,12 @@
         <v>9</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B113" s="6">
         <v>6073</v>
@@ -3687,12 +3697,12 @@
         <v>0</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" s="6">
         <v>6074</v>
@@ -3710,12 +3720,12 @@
         <v>0</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B115" s="6">
         <v>6076</v>
@@ -3733,12 +3743,12 @@
         <v>0</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B116" s="6">
         <v>6379</v>
@@ -3756,12 +3766,12 @@
         <v>0</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B117" s="6">
         <v>970546159</v>
@@ -3779,12 +3789,12 @@
         <v>0</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B118" s="6">
         <v>970546116</v>
@@ -3802,12 +3812,12 @@
         <v>0</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B119" s="6">
         <v>970546183</v>
@@ -3825,12 +3835,12 @@
         <v>0</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" s="6">
         <v>970546144</v>
@@ -3848,12 +3858,12 @@
         <v>0</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B121" s="6">
         <v>970546152</v>
@@ -3871,12 +3881,12 @@
         <v>0</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B122" s="4">
         <v>310</v>
@@ -3894,12 +3904,12 @@
         <v>0</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B123" s="6">
         <v>970546167</v>
@@ -3917,12 +3927,12 @@
         <v>0</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B124" s="6">
         <v>970546166</v>
@@ -3940,12 +3950,12 @@
         <v>0</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="6">
         <v>6307</v>
@@ -3963,12 +3973,12 @@
         <v>0</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" s="6">
         <v>6090</v>
@@ -3986,12 +3996,12 @@
         <v>0</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="6">
         <v>970546148</v>
@@ -4009,12 +4019,12 @@
         <v>0</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" s="6">
         <v>6099</v>
@@ -4032,12 +4042,12 @@
         <v>0</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B129" s="6">
         <v>6101</v>
@@ -4055,12 +4065,12 @@
         <v>0</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B130" s="6">
         <v>6136</v>
@@ -4078,12 +4088,12 @@
         <v>0</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B131" s="6">
         <v>2040</v>
@@ -4101,12 +4111,12 @@
         <v>0</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B132" s="6">
         <v>2040</v>
@@ -4124,12 +4134,12 @@
         <v>0</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B133" s="6">
         <v>2040</v>
@@ -4147,12 +4157,12 @@
         <v>0</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B134" s="6">
         <v>2040</v>
@@ -4170,12 +4180,12 @@
         <v>0</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B135" s="6">
         <v>6108</v>
@@ -4193,12 +4203,12 @@
         <v>0</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" s="6">
         <v>2008</v>
@@ -4216,12 +4226,12 @@
         <v>0</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B137" s="6">
         <v>2012</v>
@@ -4239,12 +4249,12 @@
         <v>0</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B138" s="6">
         <v>2013</v>
@@ -4262,12 +4272,12 @@
         <v>0</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B139" s="6">
         <v>2014</v>
@@ -4285,12 +4295,12 @@
         <v>0</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" s="6">
         <v>2015</v>
@@ -4308,12 +4318,12 @@
         <v>0</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="6">
         <v>2016</v>
@@ -4331,12 +4341,12 @@
         <v>0</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B142" s="6">
         <v>2019</v>
@@ -4354,12 +4364,12 @@
         <v>0</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B143" s="6">
         <v>2010</v>
@@ -4377,12 +4387,12 @@
         <v>0</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" s="6">
         <v>2021</v>
@@ -4400,12 +4410,12 @@
         <v>0</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B145" s="6">
         <v>970546135</v>
@@ -4423,12 +4433,12 @@
         <v>0</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" s="6">
         <v>2007</v>
@@ -4446,12 +4456,12 @@
         <v>0</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B147" s="6">
         <v>2025</v>
@@ -4469,12 +4479,12 @@
         <v>0</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B148" s="6">
         <v>2026</v>
@@ -4492,12 +4502,12 @@
         <v>0</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="6">
         <v>6261</v>
@@ -4515,12 +4525,12 @@
         <v>0</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="6">
         <v>970546175</v>
@@ -4538,12 +4548,12 @@
         <v>0</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="6">
         <v>6117</v>
@@ -4561,12 +4571,12 @@
         <v>0</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="6">
         <v>2005</v>
@@ -4584,12 +4594,12 @@
         <v>0</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B153" s="6">
         <v>970546132</v>
@@ -4607,12 +4617,12 @@
         <v>0</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B154" s="6">
         <v>970546140</v>
@@ -4630,12 +4640,12 @@
         <v>0</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B155" s="6">
         <v>970546153</v>
@@ -4653,12 +4663,12 @@
         <v>0</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B156" s="6">
         <v>970546157</v>
@@ -4676,12 +4686,12 @@
         <v>0</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B157" s="6">
         <v>6123</v>
@@ -4699,12 +4709,12 @@
         <v>0</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B158" s="6">
         <v>2041</v>
@@ -4722,12 +4732,12 @@
         <v>0</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B159" s="6">
         <v>970546168</v>
@@ -4745,12 +4755,12 @@
         <v>0</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B160" s="6">
         <v>5001</v>
@@ -4768,12 +4778,12 @@
         <v>0</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B161" s="6">
         <v>970546180</v>
@@ -4791,12 +4801,12 @@
         <v>0</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B162" s="6">
         <v>970546126</v>
@@ -4814,12 +4824,12 @@
         <v>0</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B163" s="6">
         <v>970546169</v>
@@ -4837,12 +4847,12 @@
         <v>0</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164" s="6">
         <v>2049</v>
@@ -4860,12 +4870,12 @@
         <v>0</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B165" s="7">
         <v>1140</v>
@@ -4883,12 +4893,12 @@
         <v>0</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B166" s="6">
         <v>6344</v>
@@ -4906,12 +4916,12 @@
         <v>0</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B167" s="6">
         <v>6135</v>
@@ -4929,14 +4939,23 @@
         <v>0</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G167">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="лікар-онколог"/>
+        <filter val="1054"/>
+        <filter val="1064"/>
+        <filter val="1067"/>
+        <filter val="1068"/>
+        <filter val="1078"/>
+        <filter val="1106"/>
+        <filter val="1116"/>
+        <filter val="1117"/>
+        <filter val="1132"/>
+        <filter val="970546139"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:G167">

--- a/src/main/resources/work-dir/user_positions.xlsx
+++ b/src/main/resources/work-dir/user_positions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\prog.academy\final_project\medsalary\src\main\resources\work-dir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\med_salary_project\med_salary\src\main\resources\work-dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E2CA8-F8F6-4B24-87DF-E9F0EEB58A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$167</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="uq15pQH3o+54JM6IFfgBfPPv9/4B7A/INg32WV1n4q0="/>
     </ext>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="247">
   <si>
     <t>Посада</t>
   </si>
@@ -272,9 +279,6 @@
     <t>лікар-ендоскопіст</t>
   </si>
   <si>
-    <t>12, 13, 15</t>
-  </si>
-  <si>
     <t>Лікар-ендоскопіст</t>
   </si>
   <si>
@@ -665,10 +669,6 @@
     <t>сестра медична зі стоматології</t>
   </si>
   <si>
-    <t xml:space="preserve">сестра медична маніпуляційна
-</t>
-  </si>
-  <si>
     <t>сестра медична операційна</t>
   </si>
   <si>
@@ -747,9 +747,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>4, 9, 17, 38, 47</t>
-  </si>
-  <si>
     <t>4, 9, 60</t>
   </si>
   <si>
@@ -760,33 +757,34 @@
   </si>
   <si>
     <t>4, 9, 47, 60</t>
+  </si>
+  <si>
+    <t>4, 9, 17, 23, 38, 47</t>
+  </si>
+  <si>
+    <t>4, 9, 14</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>лікар-інтерн</t>
+  </si>
+  <si>
+    <t>9, 12, 13, 15</t>
+  </si>
+  <si>
+    <t>сестра медична маніпуляційна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +795,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -834,46 +873,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,12 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1139,9 @@
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1124,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1144,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1167,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1190,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1213,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1236,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1259,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1282,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1305,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1328,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1351,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1374,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1397,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1420,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1443,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1466,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1489,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1512,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1535,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1558,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1627,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1650,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -1673,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1696,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1719,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1742,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1765,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -1788,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -1811,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -1834,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1857,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -1880,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
@@ -1903,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -1929,7 +1972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>43</v>
       </c>
@@ -1949,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1975,7 +2018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1995,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -2021,7 +2064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -2044,7 +2087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -2067,7 +2110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -2113,7 +2156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
@@ -2136,7 +2179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
@@ -2153,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -2182,7 +2225,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2248,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>67</v>
       </c>
@@ -2228,7 +2271,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2294,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>72</v>
       </c>
@@ -2274,7 +2317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>74</v>
       </c>
@@ -2297,7 +2340,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>76</v>
       </c>
@@ -2317,10 +2360,10 @@
         <v>9</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>77</v>
       </c>
@@ -2343,7 +2386,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -2363,10 +2406,10 @@
         <v>9</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -2382,16 +2425,16 @@
       <c r="E56" s="8">
         <v>0</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="9" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B57" s="4">
         <v>1027</v>
@@ -2409,12 +2452,12 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="7">
         <v>1033</v>
@@ -2432,12 +2475,12 @@
         <v>45</v>
       </c>
       <c r="G58" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B59" s="4">
         <v>1034</v>
@@ -2455,12 +2498,12 @@
         <v>9</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="B60" s="4">
         <v>1035</v>
@@ -2475,15 +2518,15 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="7">
         <v>1036</v>
@@ -2501,12 +2544,12 @@
         <v>45</v>
       </c>
       <c r="G61" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="B62" s="7">
         <v>970546164</v>
@@ -2524,12 +2567,12 @@
         <v>9</v>
       </c>
       <c r="G62" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="B63" s="7">
         <v>970546158</v>
@@ -2547,12 +2590,12 @@
         <v>4</v>
       </c>
       <c r="G63" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="B64" s="4">
         <v>1037</v>
@@ -2570,12 +2613,12 @@
         <v>9</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="7">
         <v>1040</v>
@@ -2593,12 +2636,12 @@
         <v>0</v>
       </c>
       <c r="G65" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="B66" s="7">
         <v>1052</v>
@@ -2616,12 +2659,12 @@
         <v>9</v>
       </c>
       <c r="G66" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="B67" s="7">
         <v>1055</v>
@@ -2639,12 +2682,12 @@
         <v>9</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="7">
         <v>1054</v>
@@ -2659,15 +2702,15 @@
         <v>0</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="6">
         <v>970546139</v>
@@ -2682,15 +2725,15 @@
         <v>0</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G69" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="B70" s="7">
         <v>1058</v>
@@ -2708,12 +2751,12 @@
         <v>4</v>
       </c>
       <c r="G70" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="B71" s="4">
         <v>1059</v>
@@ -2731,12 +2774,12 @@
         <v>45</v>
       </c>
       <c r="G71" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="B72" s="7">
         <v>1056</v>
@@ -2754,12 +2797,12 @@
         <v>9</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="B73" s="7">
         <v>1057</v>
@@ -2777,12 +2820,12 @@
         <v>9</v>
       </c>
       <c r="G73" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="B74" s="7">
         <v>1060</v>
@@ -2796,16 +2839,16 @@
       <c r="E74" s="8">
         <v>0</v>
       </c>
-      <c r="F74" s="20" t="s">
-        <v>239</v>
+      <c r="F74" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="G74" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="B75" s="7">
         <v>1062</v>
@@ -2823,12 +2866,12 @@
         <v>45</v>
       </c>
       <c r="G75" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="B76" s="7">
         <v>1063</v>
@@ -2846,12 +2889,12 @@
         <v>9</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="7">
         <v>1064</v>
@@ -2866,15 +2909,15 @@
         <v>0</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G77" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="B78" s="7">
         <v>1065</v>
@@ -2892,12 +2935,12 @@
         <v>9</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="7">
         <v>1067</v>
@@ -2912,15 +2955,15 @@
         <v>0</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="7">
         <v>1068</v>
@@ -2935,15 +2978,15 @@
         <v>0</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G80" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="B81" s="7">
         <v>1070</v>
@@ -2958,15 +3001,15 @@
         <v>0</v>
       </c>
       <c r="F81" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G81" s="9" t="s">
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="B82" s="13">
         <v>1072</v>
@@ -2984,12 +3027,12 @@
         <v>9</v>
       </c>
       <c r="G82" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="B83" s="7">
         <v>1074</v>
@@ -3004,15 +3047,15 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G83" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="B84" s="4">
         <v>1077</v>
@@ -3030,12 +3073,12 @@
         <v>0</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="7">
         <v>1078</v>
@@ -3050,15 +3093,15 @@
         <v>0</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G85" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="B86" s="7">
         <v>1080</v>
@@ -3076,12 +3119,12 @@
         <v>9</v>
       </c>
       <c r="G86" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="B87" s="7">
         <v>1087</v>
@@ -3099,12 +3142,12 @@
         <v>45</v>
       </c>
       <c r="G87" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="B88" s="7">
         <v>1088</v>
@@ -3122,12 +3165,12 @@
         <v>45</v>
       </c>
       <c r="G88" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="B89" s="7">
         <v>1091</v>
@@ -3145,12 +3188,12 @@
         <v>9</v>
       </c>
       <c r="G89" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="B90" s="7">
         <v>1094</v>
@@ -3168,12 +3211,12 @@
         <v>9</v>
       </c>
       <c r="G90" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="B91" s="7">
         <v>1093</v>
@@ -3187,16 +3230,16 @@
       <c r="E91" s="8">
         <v>0</v>
       </c>
-      <c r="F91" s="1">
-        <v>9</v>
+      <c r="F91" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="G91" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="B92" s="4">
         <v>1095</v>
@@ -3214,12 +3257,12 @@
         <v>0</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" s="4">
         <v>1099</v>
@@ -3237,12 +3280,12 @@
         <v>0</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94" s="7">
         <v>1103</v>
@@ -3257,15 +3300,15 @@
         <v>0</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G94" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="B95" s="4">
         <v>1104</v>
@@ -3280,15 +3323,15 @@
         <v>0</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="7">
         <v>1105</v>
@@ -3303,15 +3346,15 @@
         <v>0</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B97" s="7">
         <v>1106</v>
@@ -3326,15 +3369,15 @@
         <v>0</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G97" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="B98" s="7">
         <v>1107</v>
@@ -3349,15 +3392,15 @@
         <v>0</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B99" s="7">
         <v>1116</v>
@@ -3372,15 +3415,15 @@
         <v>0</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B100" s="7">
         <v>1117</v>
@@ -3395,15 +3438,15 @@
         <v>0</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G100" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="B101" s="7">
         <v>1122</v>
@@ -3421,12 +3464,12 @@
         <v>4</v>
       </c>
       <c r="G101" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="B102" s="7">
         <v>1125</v>
@@ -3440,16 +3483,16 @@
       <c r="E102" s="8">
         <v>0</v>
       </c>
-      <c r="F102" s="12" t="s">
-        <v>45</v>
+      <c r="F102" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="G102" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="B103" s="7">
         <v>1126</v>
@@ -3464,15 +3507,15 @@
         <v>0</v>
       </c>
       <c r="F103" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G103" s="9" t="s">
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="B104" s="7">
         <v>1127</v>
@@ -3490,12 +3533,12 @@
         <v>9</v>
       </c>
       <c r="G104" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="B105" s="7">
         <v>1128</v>
@@ -3513,12 +3556,12 @@
         <v>9</v>
       </c>
       <c r="G105" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="B106" s="7">
         <v>1130</v>
@@ -3536,15 +3579,15 @@
         <v>9</v>
       </c>
       <c r="G106" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="B107" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C107" s="8">
         <v>0</v>
@@ -3559,12 +3602,12 @@
         <v>9</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" s="7">
         <v>1132</v>
@@ -3579,15 +3622,15 @@
         <v>0</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G108" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B109" s="7">
         <v>1133</v>
@@ -3602,15 +3645,15 @@
         <v>0</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G109" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="B110" s="7">
         <v>1135</v>
@@ -3628,12 +3671,12 @@
         <v>4</v>
       </c>
       <c r="G110" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="B111" s="7">
         <v>1137</v>
@@ -3651,12 +3694,12 @@
         <v>4</v>
       </c>
       <c r="G111" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="B112" s="7">
         <v>1134</v>
@@ -3674,12 +3717,12 @@
         <v>9</v>
       </c>
       <c r="G112" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="B113" s="6">
         <v>6073</v>
@@ -3697,12 +3740,12 @@
         <v>0</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B114" s="6">
         <v>6074</v>
@@ -3720,12 +3763,12 @@
         <v>0</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" s="6">
         <v>6076</v>
@@ -3743,12 +3786,12 @@
         <v>0</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B116" s="6">
         <v>6379</v>
@@ -3766,12 +3809,12 @@
         <v>0</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B117" s="6">
         <v>970546159</v>
@@ -3789,12 +3832,12 @@
         <v>0</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B118" s="6">
         <v>970546116</v>
@@ -3812,12 +3855,12 @@
         <v>0</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B119" s="6">
         <v>970546183</v>
@@ -3835,12 +3878,12 @@
         <v>0</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B120" s="6">
         <v>970546144</v>
@@ -3858,12 +3901,12 @@
         <v>0</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B121" s="6">
         <v>970546152</v>
@@ -3881,12 +3924,12 @@
         <v>0</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B122" s="4">
         <v>310</v>
@@ -3904,12 +3947,12 @@
         <v>0</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B123" s="6">
         <v>970546167</v>
@@ -3927,12 +3970,12 @@
         <v>0</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B124" s="6">
         <v>970546166</v>
@@ -3950,12 +3993,12 @@
         <v>0</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B125" s="6">
         <v>6307</v>
@@ -3973,12 +4016,12 @@
         <v>0</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B126" s="6">
         <v>6090</v>
@@ -3996,12 +4039,12 @@
         <v>0</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B127" s="6">
         <v>970546148</v>
@@ -4019,12 +4062,12 @@
         <v>0</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B128" s="6">
         <v>6099</v>
@@ -4042,12 +4085,12 @@
         <v>0</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B129" s="6">
         <v>6101</v>
@@ -4065,12 +4108,12 @@
         <v>0</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B130" s="6">
         <v>6136</v>
@@ -4088,12 +4131,12 @@
         <v>0</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B131" s="6">
         <v>2040</v>
@@ -4111,12 +4154,12 @@
         <v>0</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B132" s="6">
         <v>2040</v>
@@ -4134,12 +4177,12 @@
         <v>0</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B133" s="6">
         <v>2040</v>
@@ -4157,12 +4200,12 @@
         <v>0</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B134" s="6">
         <v>2040</v>
@@ -4180,12 +4223,12 @@
         <v>0</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B135" s="6">
         <v>6108</v>
@@ -4203,12 +4246,12 @@
         <v>0</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B136" s="6">
         <v>2008</v>
@@ -4226,12 +4269,12 @@
         <v>0</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B137" s="6">
         <v>2012</v>
@@ -4249,12 +4292,12 @@
         <v>0</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B138" s="6">
         <v>2013</v>
@@ -4272,12 +4315,12 @@
         <v>0</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B139" s="6">
         <v>2014</v>
@@ -4295,12 +4338,12 @@
         <v>0</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B140" s="6">
         <v>2015</v>
@@ -4318,12 +4361,12 @@
         <v>0</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B141" s="6">
         <v>2016</v>
@@ -4341,12 +4384,12 @@
         <v>0</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B142" s="6">
         <v>2019</v>
@@ -4364,12 +4407,12 @@
         <v>0</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="B143" s="6">
         <v>2010</v>
@@ -4387,12 +4430,12 @@
         <v>0</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B144" s="6">
         <v>2021</v>
@@ -4410,12 +4453,12 @@
         <v>0</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B145" s="6">
         <v>970546135</v>
@@ -4433,12 +4476,12 @@
         <v>0</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B146" s="6">
         <v>2007</v>
@@ -4456,12 +4499,12 @@
         <v>0</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B147" s="6">
         <v>2025</v>
@@ -4479,12 +4522,12 @@
         <v>0</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B148" s="6">
         <v>2026</v>
@@ -4502,12 +4545,12 @@
         <v>0</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B149" s="6">
         <v>6261</v>
@@ -4525,12 +4568,12 @@
         <v>0</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B150" s="6">
         <v>970546175</v>
@@ -4548,12 +4591,12 @@
         <v>0</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B151" s="6">
         <v>6117</v>
@@ -4571,12 +4614,12 @@
         <v>0</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B152" s="6">
         <v>2005</v>
@@ -4594,12 +4637,12 @@
         <v>0</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B153" s="6">
         <v>970546132</v>
@@ -4617,12 +4660,12 @@
         <v>0</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B154" s="6">
         <v>970546140</v>
@@ -4640,12 +4683,12 @@
         <v>0</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B155" s="6">
         <v>970546153</v>
@@ -4663,12 +4706,12 @@
         <v>0</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B156" s="6">
         <v>970546157</v>
@@ -4686,12 +4729,12 @@
         <v>0</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B157" s="6">
         <v>6123</v>
@@ -4709,12 +4752,12 @@
         <v>0</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B158" s="6">
         <v>2041</v>
@@ -4732,12 +4775,12 @@
         <v>0</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B159" s="6">
         <v>970546168</v>
@@ -4755,12 +4798,12 @@
         <v>0</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B160" s="6">
         <v>5001</v>
@@ -4778,12 +4821,12 @@
         <v>0</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B161" s="6">
         <v>970546180</v>
@@ -4801,12 +4844,12 @@
         <v>0</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B162" s="6">
         <v>970546126</v>
@@ -4824,12 +4867,12 @@
         <v>0</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B163" s="6">
         <v>970546169</v>
@@ -4847,12 +4890,12 @@
         <v>0</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B164" s="6">
         <v>2049</v>
@@ -4870,12 +4913,12 @@
         <v>0</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B165" s="7">
         <v>1140</v>
@@ -4893,12 +4936,12 @@
         <v>0</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B166" s="6">
         <v>6344</v>
@@ -4916,12 +4959,12 @@
         <v>0</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B167" s="6">
         <v>6135</v>
@@ -4939,26 +4982,12 @@
         <v>0</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G167">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1054"/>
-        <filter val="1064"/>
-        <filter val="1067"/>
-        <filter val="1068"/>
-        <filter val="1078"/>
-        <filter val="1106"/>
-        <filter val="1116"/>
-        <filter val="1117"/>
-        <filter val="1132"/>
-        <filter val="970546139"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:G167">
+  <autoFilter ref="A1:G167" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G167">
       <sortCondition ref="A1:A167"/>
     </sortState>
   </autoFilter>
